--- a/example/xlsx/drop.xlsx
+++ b/example/xlsx/drop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,25 @@
   </si>
   <si>
     <t>struct:[(ref:item.id|unique,min:1|max:999999999,_)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_level</t>
+  </si>
+  <si>
+    <t>world_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,195 +502,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/example/xlsx/drop.xlsx
+++ b/example/xlsx/drop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\projects\cfg_exporter\example\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\cfg_exporter\example\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>world_level</t>
-  </si>
-  <si>
-    <t>world_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>世界等级</t>
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -536,472 +532,455 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
